--- a/wwwroot/Reports/comments_report.xlsx
+++ b/wwwroot/Reports/comments_report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Отчёт по комментариям</t>
   </si>
@@ -43,6 +43,210 @@
   </si>
   <si>
     <t xml:space="preserve">Я просто не могу нарадоваться на программу "1"! Это абсолютно потрясающая программа, которая открыла мне глаза на мир инноваций и исследований. Я был полностью погружен в захватывающую атмосферу творчества и сотрудничества.  С самого начала программы я был поражен профессионализмом и энтузиазмом команды "1". Они сделали все возможное, чтобы обеспечить нам самый полный и интерактивный опыт. Мы имели возможность работать в команде с талантливыми и мотивированными людьми со всего мира, что было не только вдохновляющим, но и позволило узнать много нового.</t>
+  </si>
+  <si>
+    <t>Visual Studio - отличная среда разработки!</t>
+  </si>
+  <si>
+    <t>Adobe Illustrator - мощный инструмент для дизайна.</t>
+  </si>
+  <si>
+    <t>Autodesk AutoCAD помогает мне создавать проекты.</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox - самый быстрый браузер!</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA - мой выбор для разработки на Java.</t>
+  </si>
+  <si>
+    <t>Final Cut Pro - профессиональная программа для видеомонтажа.</t>
+  </si>
+  <si>
+    <t>Unity - отличная платформа для разработки игр.</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro - профессиональная программа для видеомонтажа.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel помогает мне в работе с данными.</t>
+  </si>
+  <si>
+    <t>Blender - мощный инструмент для создания 3D-графики.</t>
+  </si>
+  <si>
+    <t>Sublime Text - легкий и гибкий текстовый редактор.</t>
+  </si>
+  <si>
+    <t>Adobe After Effects - отличный инструмент для создания видеоэффектов.</t>
+  </si>
+  <si>
+    <t>Xcode - мой выбор для разработки под iOS.</t>
+  </si>
+  <si>
+    <t>PyCharm - лучшая среда разработки для Python.</t>
+  </si>
+  <si>
+    <t>Audacity - простое в использовании программное обеспечение для звукозаписи.</t>
+  </si>
+  <si>
+    <t>MATLAB - мощный инструмент для научных расчетов.</t>
+  </si>
+  <si>
+    <t>Atom - удобный редактор с поддержкой множества плагинов.</t>
+  </si>
+  <si>
+    <t>Отличный инструмент для разработки приложений!</t>
+  </si>
+  <si>
+    <t>Использую Visual Studio уже много лет - надежная и функциональная среда разработки.</t>
+  </si>
+  <si>
+    <t>С помощью Visual Studio я создал свой первый проект!</t>
+  </si>
+  <si>
+    <t>Adobe Illustrator - лучший выбор для работы с векторной графикой.</t>
+  </si>
+  <si>
+    <t>Профессиональный инструмент для дизайна, полностью удовлетворяет мои потребности.</t>
+  </si>
+  <si>
+    <t>Создание иллюстраций в Adobe Illustrator стало для меня настоящим увлечением.</t>
+  </si>
+  <si>
+    <t>AutoCAD - отличная программа для проектирования и моделирования.</t>
+  </si>
+  <si>
+    <t>Я использую AutoCAD для создания сложных 3D-моделей.</t>
+  </si>
+  <si>
+    <t>С помощью AutoCAD моя работа стала более эффективной и продуктивной.</t>
+  </si>
+  <si>
+    <t>Мozilla Firefox - мой любимый браузер, всегда быстрый и надежный.</t>
+  </si>
+  <si>
+    <t>Firefox - отличный выбор для безопасного и комфортного просмотра веб-содержимого.</t>
+  </si>
+  <si>
+    <t>Firefox имеет множество полезных функций, которые делают мою работу в интернете проще.</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA - самая продвинутая IDE для разработки на Java.</t>
+  </si>
+  <si>
+    <t>Я не представляю свою работу без IntelliJ IDEA - это незаменимый инструмент.</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA делает процесс разработки на Java более эффективным и приятным.</t>
+  </si>
+  <si>
+    <t>Final Cut Pro - невероятно мощная программа для видеомонтажа.</t>
+  </si>
+  <si>
+    <t>Использую Final Cut Pro для создания профессиональных видеороликов - результат всегда впечатляет!</t>
+  </si>
+  <si>
+    <t>С помощью Final Cut Pro я могу воплотить свои творческие идеи в жизнь.</t>
+  </si>
+  <si>
+    <t>Unity - лучшая платформа для разработки игр всех жанров.</t>
+  </si>
+  <si>
+    <t>Я люблю Unity за его интуитивный интерфейс и мощные возможности.</t>
+  </si>
+  <si>
+    <t>Unity помогает мне воплощать свои игровые идеи в реальность.</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro - идеальный выбор для видеомонтажа профессионального уровня.</t>
+  </si>
+  <si>
+    <t>Я не могу представить свою работу без Adobe Premiere Pro - это незаменимый инструмент.</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Pro позволяет мне создавать качественные и красочные видеоролики.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel - лучшая программа для работы с данными и расчетов.</t>
+  </si>
+  <si>
+    <t>Excel стал неотъемлемой частью моей работы - это надежный инструмент.</t>
+  </si>
+  <si>
+    <t>С помощью Excel я могу эффективно анализировать и организовывать большие объемы данных.</t>
+  </si>
+  <si>
+    <t>Blender - мощный инструмент для создания потрясающей 3D-графики.</t>
+  </si>
+  <si>
+    <t>Я использую Blender для создания впечатляющих визуальных эффектов - результат всегда великолепен!</t>
+  </si>
+  <si>
+    <t>Blender позволяет мне воплотить свои творческие идеи в реальность.</t>
+  </si>
+  <si>
+    <t>Sublime Text - удобный и гибкий редактор для разработки кода.</t>
+  </si>
+  <si>
+    <t>С Sublime Text моя работа стала более продуктивной и эффективной.</t>
+  </si>
+  <si>
+    <t>Sublime Text - мой выбор для написания кода - он просто великолепен!</t>
+  </si>
+  <si>
+    <t>Adobe After Effects - незаменимый инструмент для создания качественных видеоэффектов.</t>
+  </si>
+  <si>
+    <t>Я люблю работать с Adobe After Effects - это открывает множество возможностей для творчества.</t>
+  </si>
+  <si>
+    <t>С помощью Adobe After Effects мои видео стали более динамичными и запоминающимися.</t>
+  </si>
+  <si>
+    <t>Xcode - лучшая среда разработки для приложений под iOS.</t>
+  </si>
+  <si>
+    <t>Xcode - незаменимый инструмент для разработки приложений под Apple.</t>
+  </si>
+  <si>
+    <t>Я использую Xcode для создания инновационных приложений - это удобно и эффективно.</t>
+  </si>
+  <si>
+    <t>PyCharm - лучшая IDE для разработки на Python.</t>
+  </si>
+  <si>
+    <t>Я не могу представить свою работу без PyCharm - это незаменимый инструмент для Python-разработки.</t>
+  </si>
+  <si>
+    <t>PyCharm делает процесс разработки на Python быстрым и удобным.</t>
+  </si>
+  <si>
+    <t>Audacity - простой в использовании инструмент для звукозаписи и редактирования аудио.</t>
+  </si>
+  <si>
+    <t>С Audacity я могу легко создавать и редактировать аудиозаписи - это замечательное программное обеспечение.</t>
+  </si>
+  <si>
+    <t>Audacity помогает мне воплотить мои музыкальные идеи в жизнь.</t>
+  </si>
+  <si>
+    <t>MATLAB - мощный инструмент для научных и инженерных расчетов.</t>
+  </si>
+  <si>
+    <t>Я использую MATLAB для выполнения сложных математических расчетов - это незаменимый инструмент.</t>
+  </si>
+  <si>
+    <t>MATLAB делает процесс научных расчетов более эффективным и удобным.</t>
+  </si>
+  <si>
+    <t>Atom - удобный редактор с множеством полезных плагинов.</t>
+  </si>
+  <si>
+    <t>С Atom моя работа стала более комфортной и продуктивной.</t>
+  </si>
+  <si>
+    <t>Atom - мой выбор для редактирования кода - он просто отличный!</t>
   </si>
 </sst>
 </file>
@@ -364,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -419,6 +623,754 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0">
+        <v>19</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0">
+        <v>20</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0">
+        <v>22</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0">
+        <v>23</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0">
+        <v>25</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0">
+        <v>27</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0">
+        <v>28</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0">
+        <v>29</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0">
+        <v>30</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0">
+        <v>31</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0">
+        <v>32</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0">
+        <v>33</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0">
+        <v>34</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0">
+        <v>35</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0">
+        <v>36</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0">
+        <v>37</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0">
+        <v>38</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0">
+        <v>39</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0">
+        <v>40</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0">
+        <v>41</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0">
+        <v>42</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0">
+        <v>43</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0">
+        <v>44</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0">
+        <v>45</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0">
+        <v>46</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0">
+        <v>47</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0">
+        <v>48</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0">
+        <v>49</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0">
+        <v>50</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0">
+        <v>51</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0">
+        <v>52</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0">
+        <v>53</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0">
+        <v>54</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0">
+        <v>55</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0">
+        <v>56</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0">
+        <v>57</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0">
+        <v>58</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0">
+        <v>59</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0">
+        <v>60</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0">
+        <v>61</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0">
+        <v>62</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0">
+        <v>63</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0">
+        <v>64</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0">
+        <v>65</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0">
+        <v>66</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0">
+        <v>67</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0">
+        <v>68</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0">
+        <v>69</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0">
+        <v>70</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0">
+        <v>71</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>

--- a/wwwroot/Reports/comments_report.xlsx
+++ b/wwwroot/Reports/comments_report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Отчёт по комментариям</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Atom - мой выбор для редактирования кода - он просто отличный!</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1371,6 +1374,17 @@
         <v>73</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0">
+        <v>76</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
